--- a/заказы/статистика филиалы/2024/01,24/25,01,24 КИ/дв 25,01,24 бррсч ки.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/25,01,24 КИ/дв 25,01,24 бррсч ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\25,01,24 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\25,01,24 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418223B0-8C16-454B-9731-8712B57CE0D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D39DFD3-95C8-474F-B655-8994BB8F52D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$Z$102</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="149">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -476,6 +476,9 @@
   <si>
     <t>28,01,</t>
   </si>
+  <si>
+    <t>25,01,</t>
+  </si>
 </sst>
 </file>
 
@@ -495,17 +498,23 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -976,8 +985,8 @@
   <dimension ref="A1:AW498"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R11" sqref="R11"/>
+      <pane ySplit="5" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R58" sqref="R58:R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1231,9 @@
       <c r="N4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="P4" s="14" t="s">
         <v>147</v>
       </c>
